--- a/CE DATA/graph.xlsx
+++ b/CE DATA/graph.xlsx
@@ -18,12 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>Room Labels</t>
-  </si>
-  <si>
-    <t>No of samples per room label</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>L23</t>
+  </si>
+  <si>
+    <t>No of samples per location</t>
+  </si>
+  <si>
+    <t>Location Labels</t>
   </si>
 </sst>
 </file>
@@ -142,6 +142,21 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>No of Samples per Location</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -158,7 +173,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No of samples per room label</c:v>
+                  <c:v>No of samples per location</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -320,24 +335,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="73650176"/>
-        <c:axId val="73843072"/>
+        <c:axId val="147272832"/>
+        <c:axId val="147274368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73650176"/>
+        <c:axId val="147272832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73843072"/>
+        <c:crossAx val="147274368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73843072"/>
+        <c:axId val="147274368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -345,7 +360,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73650176"/>
+        <c:crossAx val="147272832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -354,7 +369,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -373,7 +388,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -682,7 +697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -692,15 +709,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>446</v>
@@ -708,7 +725,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>239</v>
@@ -716,7 +733,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>195</v>
@@ -724,7 +741,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>425</v>
@@ -732,7 +749,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>438</v>
@@ -740,7 +757,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>507</v>
@@ -748,7 +765,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -756,7 +773,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>340</v>
@@ -764,7 +781,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>174</v>
@@ -772,7 +789,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>155</v>
@@ -780,7 +797,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>254</v>
@@ -788,7 +805,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>527</v>
@@ -796,7 +813,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>666</v>
@@ -804,7 +821,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -812,7 +829,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>597</v>
@@ -820,7 +837,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>524</v>
@@ -828,7 +845,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -836,7 +853,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -844,7 +861,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>395</v>
@@ -852,7 +869,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>122</v>
@@ -860,7 +877,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>502</v>
@@ -868,7 +885,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -876,7 +893,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>

--- a/CE DATA/graph.xlsx
+++ b/CE DATA/graph.xlsx
@@ -178,6 +178,179 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.81824028261125E-18"/>
+                  <c:y val="-0.27596899224806204"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.15813953488372093"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.76364805652225E-17"/>
+                  <c:y val="-0.13953488372093023"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.26046511627906971"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8480038480038481E-3"/>
+                  <c:y val="-0.26666666666666661"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.30697674418604659"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.21395348837209302"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.12093023255813953"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.11472868217054263"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.17364341085271318"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9240019240019241E-3"/>
+                  <c:y val="-0.31937984496124033"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.054592226089E-17"/>
+                  <c:y val="-0.39689922480620154"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.36279069767441863"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9240019240019241E-3"/>
+                  <c:y val="-0.31627906976744186"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9240019240019241E-3"/>
+                  <c:y val="-0.24496124031007752"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-9.6124031007751826E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9240019240019241E-3"/>
+                  <c:y val="-0.30697674418604654"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+            </c:dLbl>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$24</c:f>
@@ -334,25 +507,28 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
         <c:overlap val="100"/>
-        <c:axId val="147272832"/>
-        <c:axId val="147274368"/>
+        <c:axId val="133256320"/>
+        <c:axId val="133257856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147272832"/>
+        <c:axId val="133256320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147274368"/>
+        <c:crossAx val="133257856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147274368"/>
+        <c:axId val="133257856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +536,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147272832"/>
+        <c:crossAx val="133256320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -369,7 +545,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
